--- a/data/trans_dic/P41_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P41_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene contrato temporal en la actualidad</t>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,16%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>77,57%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>65,94%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,56; 70,52</t>
+          <t>8,12; 18,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,38; 77,99</t>
+          <t>10,66; 23,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,89; 84,84</t>
+          <t>10,0; 22,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,73; 83,96</t>
+          <t>11,42; 26,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,55; 67,14</t>
+          <t>5,3; 18,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,56; 93,07</t>
+          <t>9,32; 22,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,03; 89,71</t>
+          <t>6,14; 19,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,26; 74,65</t>
+          <t>9,21; 19,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,46; 79,06</t>
+          <t>10,24; 21,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,96; 96,18</t>
+          <t>8,84; 18,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,43; 76,11</t>
+          <t>13,06; 23,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,45; 79,35</t>
+          <t>10,04; 23,65</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>54,68; 75,92</t>
+          <t>12,76; 27,29</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>56,09; 78,44</t>
+          <t>10,54; 24,38</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>50,41; 74,71</t>
+          <t>10,01; 17,32</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 20,39</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 19,15</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 22,46</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 19,1</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 22,23</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 19,15</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,87; 56,26</t>
+          <t>17,55; 32,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,23; 62,93</t>
+          <t>21,56; 43,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,61; 54,34</t>
+          <t>21,22; 38,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,42; 53,61</t>
+          <t>23,46; 41,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,91; 48,24</t>
+          <t>8,44; 39,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,87; 54,63</t>
+          <t>14,25; 30,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,41; 56,72</t>
+          <t>7,18; 21,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,64; 51,9</t>
+          <t>19,77; 31,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,4; 50,23</t>
+          <t>17,36; 31,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,44; 56,99</t>
+          <t>19,63; 31,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,31; 52,7</t>
+          <t>19,32; 30,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,09; 56,61</t>
+          <t>12,4; 24,55</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>36,68; 50,37</t>
+          <t>19,45; 32,7</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>35,82; 50,81</t>
+          <t>10,49; 21,7</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33,88; 49,63</t>
+          <t>19,88; 29,64</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 34,17</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 32,68</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 34,78</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 33,44</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 29,01</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 18,79</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 28,9</t>
+          <t>9,12; 18,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 34,69</t>
+          <t>10,62; 20,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 35,32</t>
+          <t>12,9; 23,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 40,22</t>
+          <t>14,77; 27,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 38,94</t>
+          <t>6,96; 22,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 34,53</t>
+          <t>15,86; 28,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 30,61</t>
+          <t>7,24; 16,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 33,71</t>
+          <t>11,31; 19,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,28; 29,54</t>
+          <t>9,02; 17,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 46,61</t>
+          <t>12,2; 19,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 29,22</t>
+          <t>10,78; 17,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 29,56</t>
+          <t>8,36; 15,42</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>22,03; 31,51</t>
+          <t>16,4; 27,13</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,05; 32,69</t>
+          <t>5,86; 13,93</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>28,07; 40,05</t>
+          <t>11,48; 17,16</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 17,4</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 20,16</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 21,65</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 17,72</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 25,95</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 13,74</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,74; 25,37</t>
+          <t>8,57; 16,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 32,24</t>
+          <t>10,95; 22,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 26,53</t>
+          <t>9,85; 18,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 24,69</t>
+          <t>7,99; 15,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 48,7</t>
+          <t>4,27; 17,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 32,47</t>
+          <t>17,4; 31,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 34,52</t>
+          <t>6,18; 14,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 24,2</t>
+          <t>7,46; 13,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 29,6</t>
+          <t>8,67; 15,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,65; 38,08</t>
+          <t>6,46; 12,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 26,46</t>
+          <t>8,9; 15,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 30,3</t>
+          <t>7,51; 14,19</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 23,73</t>
+          <t>9,99; 18,96</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 25,04</t>
+          <t>8,3; 17,03</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 41,75</t>
+          <t>8,81; 13,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,52; 17,37</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 14,29</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 14,11</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 14,71</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 23,74</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 13,97</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 35,5</t>
+          <t>3,79; 13,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,61; 31,92</t>
+          <t>3,21; 9,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 31,97</t>
+          <t>4,02; 10,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 33,6</t>
+          <t>4,26; 10,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 28,17</t>
+          <t>1,5; 6,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 26,5</t>
+          <t>3,71; 12,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 21,09</t>
+          <t>1,07; 6,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 27,22</t>
+          <t>1,12; 5,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 30,88</t>
+          <t>0,82; 4,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 26,62</t>
+          <t>2,73; 8,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 28,26</t>
+          <t>2,99; 9,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 22,32</t>
+          <t>1,37; 7,45</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,54; 26,15</t>
+          <t>3,14; 9,75</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,26; 28,59</t>
+          <t>2,26; 8,33</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 24,15</t>
+          <t>2,76; 7,85</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 6,15</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 7,8</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 8,77</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 6,12</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 9,42</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 6,35</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1879,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1555,52 +1904,82 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>78,72%</t>
-        </is>
-      </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -1618,22 +1997,22 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1643,47 +2022,77 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,42; 4,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,49</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,07</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,13</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,0; 33,46</t>
+          <t>9,62; 13,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,63; 37,18</t>
+          <t>11,66; 17,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,52; 35,22</t>
+          <t>11,89; 16,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,24; 37,76</t>
+          <t>12,84; 18,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,09; 38,16</t>
+          <t>6,57; 15,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,85; 38,5</t>
+          <t>13,02; 18,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,9; 36,34</t>
+          <t>6,53; 10,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,41; 34,97</t>
+          <t>9,15; 12,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,34; 35,91</t>
+          <t>8,77; 12,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33,16; 42,2</t>
+          <t>9,69; 12,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,98; 33,71</t>
+          <t>10,38; 13,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,58; 35,52</t>
+          <t>7,83; 11,13</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>28,13; 34,02</t>
+          <t>11,57; 15,71</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>29,48; 35,87</t>
+          <t>7,41; 10,44</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>31,93; 38,68</t>
+          <t>9,84; 12,34</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 13,9</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 14,02</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 15,14</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 12,64</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 16,24</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 9,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>65904</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>82258</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83110</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90735</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49237</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6501</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63108</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>72372</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66654</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88899</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74199</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6202</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>129012</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>154630</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>149764</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>179635</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>123436</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>13574</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>11241</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41633; 94173</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53208; 115313</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52027; 119460</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58240; 133223</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24191; 83022</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3923; 9607</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2669; 8618</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42627; 90924</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47624; 101889</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45042; 93146</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65722; 120336</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46830; 110379</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4733; 10124</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4065; 9399</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>97709; 169018</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>117786; 196568</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>108690; 197190</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>135191; 227628</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>85157; 176240</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>10150; 17598</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>8014; 15714</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134898</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>170884</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>159816</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>182414</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>106913</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10661</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>128860</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>118989</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>126134</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>127936</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>89323</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11751</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6668</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>263758</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>289872</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>285950</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>310350</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>196236</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>22413</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>12775</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98884; 183411</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>121640; 244596</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>119466; 219433</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>138787; 247152</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48968; 228637</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6994; 14977</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3449; 10269</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>102591; 161457</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>89098; 159187</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>98288; 156847</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>99009; 158571</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>60217; 119189</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8922; 15000</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4586; 9489</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>215108; 320785</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>224467; 368202</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>237724; 347619</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>259233; 384054</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>131141; 356250</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>17222; 27546</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>9059; 17250</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>87343</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>98813</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>119240</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>139045</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>86794</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12812</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6615</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>102642</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>91513</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>110299</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97876</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84056</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11205</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>189985</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>190326</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>229539</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>236920</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>170850</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>24016</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>61629; 122974</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>72862; 143492</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>87823; 162012</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100413; 188811</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45533; 148774</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9417; 16727</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4296; 9955</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>78545; 132787</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63994; 121363</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86354; 138564</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>75494; 124157</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59581; 109875</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8604; 14235</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3140; 7458</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>157242; 235150</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>149428; 242930</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>187516; 280026</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>193491; 298751</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>120315; 242142</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>19751; 29018</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>8546; 15509</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75565</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>99664</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>85116</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71755</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>54923</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13347</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72173</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>78923</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>59716</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77367</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>67221</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7182</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6232</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>147739</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>178587</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>144832</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>149122</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>122143</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>20529</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>11488</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>54696; 102889</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>70860; 144805</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>63029; 117539</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50654; 95582</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27527; 113273</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9979; 18270</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3464; 7886</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52473; 97649</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>58890; 106978</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42286; 82732</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57590; 101938</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>48273; 91167</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5026; 9536</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4228; 8674</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>118242; 187714</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>139570; 230424</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>113732; 184942</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>118453; 180765</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>89285; 189481</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>16325; 25552</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>8617; 14951</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34912</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28862</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34076</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35499</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16733</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3172</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13870</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10656</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>23755</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26492</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18567</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>48782</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>39517</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>57831</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>61991</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>35300</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19421; 69491</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15900; 48243</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20179; 52802</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20945; 53554</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7416; 31120</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1625; 5336</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>476; 2720</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5613; 27216</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4168; 23469</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13503; 40772</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15227; 45787</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7098; 38527</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1516; 4710</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1043; 3845</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>28024; 79582</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>24735; 61642</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>40581; 77828</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>43336; 87764</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>19737; 61817</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>4080; 8682</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>1971; 5748</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6275</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>6275</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1222</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2893; 28523</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21123</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>2887; 30478</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>0; 25329</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1227</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>398623</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>480480</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>481358</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>519448</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>314600</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46492</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24479</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>380653</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>372452</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>396629</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>424846</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>333366</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>40024</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>26351</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>779276</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>852932</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>877988</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>944293</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>647965</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>86516</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>50830</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>331874; 468706</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>400791; 600714</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>408427; 563091</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>441512; 630053</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>222866; 509454</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38859; 54376</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19387; 30721</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>330292; 443414</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>315019; 439051</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>345323; 461609</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>370052; 484661</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>278565; 395956</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>34414; 46735</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>21948; 30942</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>695012; 871092</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>742762; 977146</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>781962; 980969</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>842259; 1060664</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>542155; 878550</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>78022; 96797</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>43829; 59065</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>